--- a/timestamp_a1760776.xlsx
+++ b/timestamp_a1760776.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55b2656a673425c8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8619D7D-D02F-46D0-8DBC-594B8182B45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{E8619D7D-D02F-46D0-8DBC-594B8182B45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87DC2DFA-BA4B-4BE5-BA05-474D12014878}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Week 3</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>Getting used to canvas and understanding the part of intergration of parsons puzzle into H5P</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL TIME CONTRIBUTION</t>
+  </si>
+  <si>
+    <t>TIME CONTRIBUTION FOR GROUP</t>
   </si>
 </sst>
 </file>
@@ -381,15 +387,20 @@
     <tabColor rgb="FF660000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -436,12 +447,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -455,7 +466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -469,7 +480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -565,110 +576,118 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>0.5</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C21" s="1">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="C22" s="1">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>0.5625</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>0.6875</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="C27" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="C28" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C29" s="1">
         <v>0.75</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>14</v>
       </c>
     </row>
